--- a/output/NotInJOIN.xlsx
+++ b/output/NotInJOIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,19 +765,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Клієнти</t>
+          <t>К-ть клієнтів</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Comands</t>
+          <t>Clients</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ClassificationName</t>
+          <t>Клієнти</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>ClassificationName</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Команди</t>
+          <t>code</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Credits</t>
+          <t>Comands</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AgreementCode</t>
+          <t>Команди</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ClientCode</t>
+          <t>AgreementCode</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>ClientCode</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Comment</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DateDoc</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>DateDoc</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DayDelay</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IsFin</t>
+          <t>DayDelay</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>IsFin</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>OrgCode</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ProjectCode</t>
+          <t>OrgCode</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ProlongedCredit</t>
+          <t>ProjectCode</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>ProlongedCredit</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TeritoriCode</t>
+          <t>QuarterPart</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WarehouseCode</t>
+          <t>TeritoriCode</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>WarehouseCode</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>К-ть днів (для кредиторки)</t>
+          <t>number</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Кредиторка в днях (міс)</t>
+          <t>К-ть днів (для кредиторки)</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Кредиторка в днях (на поточну дату)</t>
+          <t>Кредиторка в днях (міс)</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Кредиторка загальна</t>
+          <t>Кредиторка в днях (на поточну дату)</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Оборотність кредиторки</t>
+          <t>Кредиторка загальна</t>
         </is>
       </c>
     </row>
@@ -1089,19 +1089,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Середньоденна сума кредиторки</t>
+          <t>Оборотність кредиторки</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Debts</t>
+          <t>Credits</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>% дебіторки від обороту</t>
+          <t>Середньоденна сума кредиторки</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>% дебіторки від обороту (Стиль)</t>
+          <t>% дебіторки від обороту</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>% дебіторки від обороту (Стиль)</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AgentCode</t>
+          <t>Action</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ClientCode</t>
+          <t>AgentCode</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ComandCode</t>
+          <t>ClientCode</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>ComandCode</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KanalCode</t>
+          <t>DeliveryCode</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LastDateOfPayment</t>
+          <t>KanalCode</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Max дні_протермінування</t>
+          <t>LastDateOfPayment</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>Max дні_протермінування</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Month№</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>OrgCode</t>
+          <t>Month№</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ProjectCode</t>
+          <t>OrgCode</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>ProjectCode</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TeritoriCode</t>
+          <t>QuarterPart</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WarehouseCode</t>
+          <t>TeritoriCode</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WeekDayDateOfPayment</t>
+          <t>WarehouseCode</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>WeekDayDateOfPayment</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Дебіторка</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Дебіторка в днях (на поточну дату)</t>
+          <t>Дебіторка</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Дебіторка загальна</t>
+          <t>Дебіторка в днях (на поточну дату)</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Дебіторка загальна (Стиль)</t>
+          <t>Дебіторка загальна</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Дні протермінування</t>
+          <t>Дебіторка загальна (Стиль)</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>К-ть днів (для дебіторки)</t>
+          <t>Дні протермінування</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Коментар</t>
+          <t>К-ть днів (дебіторки)</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Номер документа</t>
+          <t>К-ть днів (для дебіторки)</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Обертовість дебіторки (дні)</t>
+          <t>Коментар</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Обертовість дебіторки в днях</t>
+          <t>Номер документа</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Обертовість дебіторки, дні (Стиль)</t>
+          <t>Обертовість дебіторки (дні)</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Обмін товарів</t>
+          <t>Обертовість дебіторки в днях</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Оборотність дебіторки</t>
+          <t>Обертовість дебіторки, дні (Стиль)</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Сер. дні відтермінування</t>
+          <t>Обмін товарів</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Середньоденна сума дебіторки</t>
+          <t>Оборотність дебіторки</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Середня к-ть днів (дебіторки)</t>
+          <t>Сер. дні відтермінування</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Середня к-ть днів (протерміновки)</t>
+          <t>Середньоденна сума дебіторки</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Середні продажі за останні 30 календарних днів</t>
+          <t>Середня к-ть днів (дебіторки)</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Спосіб доставки</t>
+          <t>Середня к-ть днів (протерміновки)</t>
         </is>
       </c>
     </row>
@@ -1641,31 +1641,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Фінансова накладна</t>
+          <t>Середні продажі за останні 30 календарних днів</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DeliveryAddresses</t>
+          <t>Debts</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Спосіб доставки</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DeliveryAddresses</t>
+          <t>Debts</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Length</t>
+          <t>Фінансова накладна</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oblast</t>
+          <t>Country</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>Length</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>clcode</t>
+          <t>Oblast</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>Width</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Адреси доставки</t>
+          <t>clcode</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Вид ТТ</t>
+          <t>code</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Канал збуту</t>
+          <t>Адреси доставки</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Населений пункт</t>
+          <t>Вид ТТ</t>
         </is>
       </c>
     </row>
@@ -1773,31 +1773,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Признак мережі</t>
+          <t>Канал збуту</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DimDates</t>
+          <t>DeliveryAddresses</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Населений пункт</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DimDates</t>
+          <t>DeliveryAddresses</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>Признак мережі</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DateNumber</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DayName</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DayNumberOfMonth</t>
+          <t>DateNumber</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DayNumberOfQuarter</t>
+          <t>DayName</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DayNumberOfWeek</t>
+          <t>DayNumberOfMonth</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DayNumberOfYear</t>
+          <t>DayNumberOfQuarter</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DayShortName</t>
+          <t>DayNumberOfWeek</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SaleRate (UAH VAT inc)</t>
+          <t>DayNumberOfYear</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SaleRate, %</t>
+          <t>DayShortName</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WeekNumber</t>
+          <t>SaleRate (UAH VAT inc)</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>WorkDays</t>
+          <t>SaleRate, %</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>WorkingDays</t>
+          <t>WeekNumber</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>YearMonthNumber</t>
+          <t>WorkDays</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>YearQuarterNumber</t>
+          <t>WorkingDays</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>YearsForSelection</t>
+          <t>YearMonthNumber</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>YearQuarterNumber</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>К-сть робочих днів у періоді пройшло</t>
+          <t>YearsForSelection</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>К-ть днів минуло</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>К-ть місяців минуло</t>
+          <t>К-сть робочих днів у періоді пройшло</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>К-ть_днів</t>
+          <t>К-ть днів минуло</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Квартал</t>
+          <t>К-ть місяців минуло</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Майбутній період в місяці (дні)</t>
+          <t>К-ть_днів</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Майбутній період в році (дні)</t>
+          <t>Квартал</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Минулий період в місяці (дні)</t>
+          <t>Майбутній період в місяці (дні)</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Минулий період в році (дні)</t>
+          <t>Майбутній період в році (дні)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Місяць</t>
+          <t>Минулий період в місяці (дні)</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Місяць №</t>
+          <t>Минулий період в році (дні)</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Період</t>
+          <t>Місяць</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Поточна дата</t>
+          <t>Місяць №</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Поточний місяць</t>
+          <t>Період</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Початкова дата</t>
+          <t>Поточна дата</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Рік</t>
+          <t>Поточний місяць</t>
         </is>
       </c>
     </row>
@@ -2193,31 +2193,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Сьогодні</t>
+          <t>Початкова дата</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>DimDates</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Рік</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>DimDates</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ContractNon</t>
+          <t>Сьогодні</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>biCode</t>
+          <t>Contract</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>projectcode</t>
+          <t>ContractNon</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Історія</t>
+          <t>biCode</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Бренди</t>
+          <t>projectcode</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Контракт</t>
+          <t>Історія</t>
         </is>
       </c>
     </row>
@@ -2289,38 +2289,38 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>№</t>
+          <t>Бренди</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Kanals</t>
+          <t>History</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>Контракт</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Kanals</t>
+          <t>History</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Канали збуту</t>
+          <t>№</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Locality</t>
+          <t>Kanals</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,36 +2332,36 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Locality</t>
+          <t>Kanals</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Канали збуту</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Organizations</t>
+          <t>Locality</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Organizations_Tema</t>
+          <t>code</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Organizations</t>
+          <t>Locality</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Organizations_Tema_Styl</t>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Organizations_Tema_Zakhid</t>
+          <t>Organizations_Tema</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>Organizations_Tema_Styl</t>
         </is>
       </c>
     </row>
@@ -2397,31 +2397,31 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Організації</t>
+          <t>Organizations_Tema_Zakhid</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PlanZak</t>
+          <t>Organizations</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>code</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PlanZak</t>
+          <t>Organizations</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>code projects</t>
+          <t>Організації</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>code teritories</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Місяць</t>
+          <t>code projects</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>План закупки (без ПДВ)</t>
+          <t>code teritories</t>
         </is>
       </c>
     </row>
@@ -2469,31 +2469,31 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Сума плану закупки (без ПДВ)</t>
+          <t>Місяць</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PlaneOfIn</t>
+          <t>PlanZak</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DataNormal</t>
+          <t>План закупки (без ПДВ)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PlaneOfIn</t>
+          <t>PlanZak</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>Сума плану закупки (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>DataNormal</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>agentcode</t>
+          <t>QuarterPart</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>comandcode</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>agentcode</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>comandcode</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>orgcode</t>
+          <t>count</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>projectcode</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>orgcode</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>teritoricode</t>
+          <t>projectcode</t>
         </is>
       </c>
     </row>
@@ -2625,31 +2625,31 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Сума план закупки (без ПДВ)</t>
+          <t>sum</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PlaneOfSales</t>
+          <t>PlaneOfIn</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>% виконання плану продажу дня</t>
+          <t>teritoricode</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PlaneOfSales</t>
+          <t>PlaneOfIn</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>Сума план закупки (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>% виконання плану продажу дня</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>agentcode</t>
+          <t>QuarterPart</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>comandcode</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>agentcode</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>comandcode</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>orgcode</t>
+          <t>count</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>projectcode</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>orgcode</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>teritoricode</t>
+          <t>projectcode</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>План дня (з ПДВ)</t>
+          <t>sum</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>План продажу (з ПДВ), тис.</t>
+          <t>teritoricode</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>План продажу, шт</t>
+          <t>План дня (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Прогноз % виконання плану продажу в собівартості, без ПДВ</t>
+          <t>План продажу (з ПДВ), тис.</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Сума план продажу (без ПДВ)</t>
+          <t>План продажу, шт</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Сума план продажу (з ПДВ)</t>
+          <t>Прогноз % виконання плану продажу в собівартості, без ПДВ</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Сума план продажу в собівартості (без ПДВ)</t>
+          <t>Сума план продажу (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -2877,31 +2877,31 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Сума план продажу, з ПДВ (Стиль)</t>
+          <t>Сума план продажу (з ПДВ)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>PlaneOfSales</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>basein</t>
+          <t>Сума план продажу в собівартості (без ПДВ)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>PlaneOfSales</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>baseout</t>
+          <t>Сума план продажу, з ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>basein</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>baseout</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>prodcode</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>projcode</t>
+          <t>price</t>
         </is>
       </c>
     </row>
@@ -2961,31 +2961,31 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>typecode</t>
+          <t>prodcode</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ProductGroup</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>projcode</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ProductGroup</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ParentCode</t>
+          <t>typecode</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>projectcod</t>
+          <t>Code</t>
         </is>
       </c>
     </row>
@@ -3009,31 +3009,31 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Група товару</t>
+          <t>ParentCode</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>ProductGroup</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Category1</t>
+          <t>projectcod</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>ProductGroup</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Category2</t>
+          <t>Група товару</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Category3</t>
+          <t>Category1</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ParentCode0</t>
+          <t>Category2</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ParentCode1</t>
+          <t>Category3</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ParentCode2</t>
+          <t>ParentCode0</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ParentCode3</t>
+          <t>ParentCode1</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ParentCode4</t>
+          <t>ParentCode2</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ParentCode5</t>
+          <t>ParentCode3</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ParentCode6</t>
+          <t>ParentCode4</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ParentCode7</t>
+          <t>ParentCode5</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ParentCode8</t>
+          <t>ParentCode6</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ParentCode9</t>
+          <t>ParentCode7</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ProductGroupCode</t>
+          <t>ParentCode8</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>ParentCode9</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>projectcod</t>
+          <t>ProductGroupCode</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Артикул</t>
+          <t>code</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Товари</t>
+          <t>projectcod</t>
         </is>
       </c>
     </row>
@@ -3237,31 +3237,31 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Штрихкод</t>
+          <t>Артикул</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Projects</t>
+          <t>Products</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Товари</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Projects</t>
+          <t>Products</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ContractNon</t>
+          <t>Штрихкод</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Projects_Biosphere</t>
+          <t>Contract</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Projects_Henkel</t>
+          <t>ContractNon</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Projects_Loreal_MAS</t>
+          <t>Projects_Biosphere</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Projects_Loreal_prof</t>
+          <t>Projects_Henkel</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Projects_Matrix</t>
+          <t>Projects_Loreal_MAS</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Projects_Nestle</t>
+          <t>Projects_Loreal_prof</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Projects_RB</t>
+          <t>Projects_Matrix</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Projects_Schwarzkopf</t>
+          <t>Projects_Nestle</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Projects_VichyLP</t>
+          <t>Projects_RB</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>Projects_Schwarzkopf</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Бенкізер НН</t>
+          <t>Projects_VichyLP</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Бенкізер_1</t>
+          <t>code</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Бренди</t>
+          <t>Бенкізер НН</t>
         </is>
       </c>
     </row>
@@ -3429,31 +3429,31 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Контракт</t>
+          <t>Бенкізер_1</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ProjectsStatus</t>
+          <t>Projects</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Блокування закупок Темою</t>
+          <t>Бренди</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ProjectsStatus</t>
+          <t>Projects</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Блокування закупок Темою(міра)</t>
+          <t>Контракт</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Блокування оплат</t>
+          <t>Блокування закупок Темою</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Блокування оплат(міра)</t>
+          <t>Блокування закупок Темою(міра)</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>БлокуванняЗакупок</t>
+          <t>Блокування оплат</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>БлокуванняОплат</t>
+          <t>Блокування оплат(міра)</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Бренд</t>
+          <t>БлокуванняЗакупок</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Відтермінування оплат</t>
+          <t>БлокуванняОплат</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Відтермінування оплат(міра)</t>
+          <t>Бренд</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Відтермінування оплат</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>МенеджерПроекту</t>
+          <t>Відтермінування оплат(міра)</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Обмеження в закупках зі сторони постачальника</t>
+          <t>Менеджер</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Обмеження в закупках зі сторони постачальника(міра)</t>
+          <t>МенеджерПроекту</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ОбмеженняВЗакупках</t>
+          <t>Обмеження в закупках зі сторони постачальника</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Переміщення між підрозділами</t>
+          <t>Обмеження в закупках зі сторони постачальника(міра)</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Переміщення між підрозділами(міра)</t>
+          <t>ОбмеженняВЗакупках</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ПереміщенняМіжПідрозділами</t>
+          <t>Переміщення між підрозділами</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>РМ</t>
+          <t>Переміщення між підрозділами(міра)</t>
         </is>
       </c>
     </row>
@@ -3657,31 +3657,31 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>РегіональнийМенеджерПроекту</t>
+          <t>ПереміщенняМіжПідрозділами</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>ProjectsStatus</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>% акційних продаж</t>
+          <t>РМ</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>ProjectsStatus</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>% вчасних накладних</t>
+          <t>РегіональнийМенеджерПроекту</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>% зриву</t>
+          <t>% акційних продаж</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>AgentCode</t>
+          <t>% вчасних накладних</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ClientCode</t>
+          <t>% зриву</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ComandCode</t>
+          <t>AgentCode</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>ClientCode</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DOT_norma</t>
+          <t>ComandCode</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>DOT</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DeliveryType</t>
+          <t>DOT_norma</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>IsFin</t>
+          <t>DeliveryType</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>KanalCode</t>
+          <t>Id</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>IsFin</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NotLoaded</t>
+          <t>KanalCode</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Obmin</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>OrgCode</t>
+          <t>NotLoaded</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PriceCode</t>
+          <t>Obmin</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>OrgCode</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sales(Last30DaysFromToday)</t>
+          <t>PriceCode</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TeritoriCode</t>
+          <t>QuarterPart</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>WarehouseCode</t>
+          <t>Sales(Last30DaysFromToday)</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>TeritoriCode</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>WarehouseCode</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>vs.Продажі по с\в без пдв (-30)</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Акція</t>
+          <t>number</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Дата Заявки</t>
+          <t>vs.Продажі по с\в без пдв (-30)</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Дата Продажу</t>
+          <t>Акція</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Дата Рейса</t>
+          <t>Дата Заявки</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>К-сть ТТ від 100 грн</t>
+          <t>Дата Продажу</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>К-ть вчасних накладних</t>
+          <t>Дата Рейса</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>К-ть днів від заявки до рейсу</t>
+          <t>К-сть ТТ від 100 грн</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>К-ть днів від реалізації до рейсу</t>
+          <t>К-ть вчасних накладних</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>К-ть днів продажу</t>
+          <t>К-ть днів від заявки до рейсу</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>К-ть місяців продажу</t>
+          <t>К-ть днів від реалізації до рейсу</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>К-ть проданого товару (ост 90 днів)</t>
+          <t>К-ть днів продажу</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Комментарий</t>
+          <t>К-ть місяців продажу</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Кількість клієнтів</t>
+          <t>К-ть проданого товару (ост 90 днів)</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Кількість накладних</t>
+          <t>Комментарий</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Номер Рейса</t>
+          <t>Кількість клієнтів</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Остання дата продажу</t>
+          <t>Кількість накладних</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Перша дата продажу</t>
+          <t>Номер Рейса</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Продажі (ост 30 днів)</t>
+          <t>Остання дата продажу</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Продажі (ост 30 днів) (Стиль)</t>
+          <t>Перша дата продажу</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Продажі по с/в без ПДВ (ост 30 днів)</t>
+          <t>Продажі (ост 30 днів)</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Продажі по с/в без ПДВ (ост 30 днів) (Стиль)</t>
+          <t>Продажі (ост 30 днів) (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Продажі по с/в без ПДВ (ост 90 днів)</t>
+          <t>Продажі по с/в без ПДВ (ост 30 днів)</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>СчетId</t>
+          <t>Продажі по с/в без ПДВ (ост 30 днів) (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4245,31 +4245,31 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ф1/Ф2</t>
+          <t>Продажі по с/в без ПДВ (ост 90 днів)</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SalesDet</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>% виконання плану покриття АТТ</t>
+          <t>СчетId</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SalesDet</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>% виконання плану продажу</t>
+          <t>Ф1/Ф2</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>% виконання плану продажу (Стиль)</t>
+          <t>% виконання плану покриття АТТ</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>% виконання плану продажу (без ПДВ)</t>
+          <t>% виконання плану продажу</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>% виконання плану продажу на основі прогнозу (Стиль)</t>
+          <t>% виконання плану продажу (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>% виконання плану продажу на основі прогнозу місяця</t>
+          <t>% виконання плану продажу (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>% виконання плану продажу на основі прогнозу року</t>
+          <t>% виконання плану продажу на основі прогнозу (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>% виконання плану продажу темп+факт</t>
+          <t>% виконання плану продажу на основі прогнозу місяця</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>% виконання плану продажу, шт</t>
+          <t>% виконання плану продажу на основі прогнозу року</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>% знижки</t>
+          <t>% виконання плану продажу темп+факт</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>% знижки (Стиль)</t>
+          <t>% виконання плану продажу, шт</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>% маржі</t>
+          <t>% знижки</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>% маржі плановий</t>
+          <t>% знижки (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>% маржі факт/план</t>
+          <t>% маржі</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>% націнки</t>
+          <t>% маржі плановий</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>% націнки (Стиль)</t>
+          <t>% маржі факт/план</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>% росту 2019/2018</t>
+          <t>% націнки</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>BaseSum</t>
+          <t>% націнки (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Cod адреси</t>
+          <t>% росту 2019/2018</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CostSum</t>
+          <t>BaseSum</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Discount</t>
+          <t>Cod адреси</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>CostSum</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Margin</t>
+          <t>Discount</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Period</t>
+          <t>Id</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ProductCode</t>
+          <t>Margin</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ProductGroupCode</t>
+          <t>Period</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ProjectCode</t>
+          <t>ProductCode</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>SKU (к-ть проданих позицій товару)</t>
+          <t>ProductGroupCode</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>ProjectCode</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>nds</t>
+          <t>SKU (к-ть проданих позицій товару)</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>count</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>nds</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>К-ть проданого товару, шт</t>
+          <t>price</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Кількість проданого товару (ост 30 днів)</t>
+          <t>sum</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Кількість проданого товару (ост 90 днів)</t>
+          <t>К-ть проданого товару, шт</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Планове покриття АТТ</t>
+          <t>Кількість проданого товару (ост 30 днів)</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Повернення (без ПДВ)</t>
+          <t>Кількість проданого товару (ост 90 днів)</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Покриття АТТ</t>
+          <t>Планове покриття АТТ</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Покриття АТТ (Стиль)</t>
+          <t>Повернення (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Прогноз продажу (Стиль)</t>
+          <t>Покриття АТТ</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Прогноз продажу (з ПДВ), тис.</t>
+          <t>Покриття АТТ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Прогноз продажу в поточному місяці</t>
+          <t>Прогноз продажу (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Прогноз продажу в поточному році</t>
+          <t>Прогноз продажу (з ПДВ), тис.</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Прогноз продажу по с/в, без ПДВ</t>
+          <t>Прогноз продажу в поточному місяці</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Різниця планового і прогнозованого продажу (з ПДВ)</t>
+          <t>Прогноз продажу в поточному році</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Різниця планового і фактичного продажу (з ПДВ)</t>
+          <t>Прогноз продажу по с/в, без ПДВ</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>СКЮ</t>
+          <t>Різниця планового і прогнозованого продажу (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Середньоденний продаж</t>
+          <t>Різниця планового і фактичного продажу (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Середньоденний продаж на основі прогнозу місяця</t>
+          <t>СКЮ</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Середньомісячний продаж</t>
+          <t>Середньоденний продаж</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Середній чек</t>
+          <t>Середньоденний продаж на основі прогнозу місяця</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Сума знижки (без ПДВ)</t>
+          <t>Середньомісячний продаж</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Сума знижки (з ПДВ)</t>
+          <t>Середній чек</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Сума знижки, з ПДВ (Стиль)</t>
+          <t>Сума знижки (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Сума націнки (без ПДВ)</t>
+          <t>Сума знижки (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Сума націнки (з ПДВ)</t>
+          <t>Сума знижки, з ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Сума націнки, без ПДВ (Стиль)</t>
+          <t>Сума націнки (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Сума продаж (без ПДВ)</t>
+          <t>Сума націнки (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Сума продаж (з ПДВ)</t>
+          <t>Сума націнки, без ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Сума продаж (з ПДВ)_2018</t>
+          <t>Сума продаж (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Сума продаж (з ПДВ)_2019</t>
+          <t>Сума продаж (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Сума продаж в баз.цінах (з ПДВ)</t>
+          <t>Сума продаж (з ПДВ)_2018</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Сума продаж в баз.цінах, з ПДВ (Стиль)</t>
+          <t>Сума продаж (з ПДВ)_2019</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Сума продаж по с/в (без ПДВ)</t>
+          <t>Сума продаж в баз.цінах (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Сума продаж по с/в, без ПДВ (Стиль)</t>
+          <t>Сума продаж в баз.цінах, з ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Сума продаж, з ПДВ (Стиль)</t>
+          <t>Сума продаж по с/в (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Сума продажу (з ПДВ), тис.</t>
+          <t>Сума продаж по с/в, без ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Темп на кінець місяця (без ПДВ), грн.</t>
+          <t>Сума продаж, з ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Темп на кінець періоду ( без ПДВ), %</t>
+          <t>Сума продажу (з ПДВ), тис.</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Темп на кінець періоду, %</t>
+          <t>Темп на кінець місяця (без ПДВ), грн.</t>
         </is>
       </c>
     </row>
@@ -5097,31 +5097,31 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Темп на кінець періоду, шт %</t>
+          <t>Темп на кінець періоду ( без ПДВ), %</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Stocks</t>
+          <t>SalesDet</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>BaseSum</t>
+          <t>Темп на кінець періоду, %</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Stocks</t>
+          <t>SalesDet</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>Темп на кінець періоду, шт %</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>BaseSum</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>Count</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>OrgCode</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ProductCode</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>TeritoriCode</t>
+          <t>OrgCode</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>WarehouseCode</t>
+          <t>ProductCode</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>TeritoriCode</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Залишки (дні)</t>
+          <t>WarehouseCode</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Залишки в днях (міс)</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Залишки в днях (на поточну дату)</t>
+          <t>Залишки (дні)</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Залишки на кін періоду</t>
+          <t>Залишки в днях (міс)</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Залишки на кін періоду (к-ть)</t>
+          <t>Залишки в днях (на поточну дату)</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Залишки на останню дату</t>
+          <t>Залишки на кін періоду</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Залишки на поч періоду</t>
+          <t>Залишки на кін періоду (к-ть)</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Залишки на поч періоду (к-ть)</t>
+          <t>Залишки на останню дату</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Залишки по к-ті (дні)</t>
+          <t>Залишки на поч періоду</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>К-ть днів (для залишків)</t>
+          <t>Залишки на поч періоду (к-ть)</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>К-ть залишків</t>
+          <t>Залишки по к-ті (дні)</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Кількість SKU</t>
+          <t>К-ть днів (для залишків)</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Обертовість залишків (дні)</t>
+          <t>К-ть залишків</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Обертовість залишків (дні) Стиль</t>
+          <t>Кількість SKU</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Обертовість залишків (по шт), дні</t>
+          <t>Обертовість залишків (дні)</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Обертовість залишків кін. періоду (дні)</t>
+          <t>Обертовість залишків (дні) Стиль</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Оборотність залишків</t>
+          <t>Обертовість залишків (по шт), дні</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Прогноз залишку на кінець місяця</t>
+          <t>Обертовість залишків кін. періоду (дні)</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Прогноз залишку на кінець місяця (дні)</t>
+          <t>Оборотність залишків</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Середньоденна сума залишків</t>
+          <t>Прогноз залишку на кінець місяця</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Сума залишків (грн без ПДВ)</t>
+          <t>Прогноз залишку на кінець місяця (дні)</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Сума залишків (грн з ПДВ)</t>
+          <t>Середньоденна сума залишків</t>
         </is>
       </c>
     </row>
@@ -5493,31 +5493,31 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Сума залишків, без ПДВ (Стиль)</t>
+          <t>Сума залишків (грн без ПДВ)</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Teritories</t>
+          <t>Stocks</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Chernivtsi</t>
+          <t>Сума залишків (грн з ПДВ)</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Teritories</t>
+          <t>Stocks</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Frankivsk</t>
+          <t>Сума залишків, без ПДВ (Стиль)</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Khmelnytskyi</t>
+          <t>Chernivtsi</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Frankivsk</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Lytsk</t>
+          <t>Khmelnytskyi</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Rivne</t>
+          <t>Lviv</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Teritories_Chernivtsi</t>
+          <t>Lytsk</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Teritories_Ivano-Frankivsk</t>
+          <t>Rivne</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Teritories_Khmelnytskyi</t>
+          <t>Teritories_Chernivtsi</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Teritories_Lutsk</t>
+          <t>Teritories_Ivano-Frankivsk</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Teritories_Lviv</t>
+          <t>Teritories_Khmelnytskyi</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Teritories_Lviv_Styl</t>
+          <t>Teritories_Lutsk</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Teritories_Mukachevo</t>
+          <t>Teritories_Lviv</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Teritories_Rivne</t>
+          <t>Teritories_Lviv_Styl</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Teritories_Ternopil</t>
+          <t>Teritories_Mukachevo</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Teritories_Vinnytsia</t>
+          <t>Teritories_Rivne</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Teritories_Zhytomyr</t>
+          <t>Teritories_Ternopil</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Ternopil</t>
+          <t>Teritories_Vinnytsia</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Vinnytsia</t>
+          <t>Teritories_Zhytomyr</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Zakarpattya</t>
+          <t>Ternopil</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Zgytomir</t>
+          <t>Vinnytsia</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>codeTeritory</t>
+          <t>Zakarpattya</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Підрозділи</t>
+          <t>Zgytomir</t>
         </is>
       </c>
     </row>
@@ -5781,38 +5781,38 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Територія</t>
+          <t>codeTeritory</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TypeOfDeliveryAddresses</t>
+          <t>Teritories</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>Підрозділи</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TypeOfDeliveryAddresses</t>
+          <t>Teritories</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Територія</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TypeOfPrices</t>
+          <t>TypeOfDeliveryAddresses</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TypeOfPrices</t>
+          <t>TypeOfDeliveryAddresses</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Warehouses</t>
+          <t>TypeOfPrices</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5848,12 +5848,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Warehouses</t>
+          <t>TypeOfPrices</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Загальна сума  неліквідного, протермінованого товару (в грн. з ПДВ)</t>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Склад Неліквід, Бій, Брак (в грн. з ПДВ)</t>
+          <t>code</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Склад Протерміновки (в грн. з ПДВ)</t>
+          <t>Загальна сума  неліквідного, протермінованого товару (в грн. з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Склад повернення постачальнику (в грн. з ПДВ)</t>
+          <t>Склад Неліквід, Бій, Брак (в грн. з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Склади</t>
+          <t>Склад Протерміновки (в грн. з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -5913,55 +5913,55 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Типи Складів (для закупки+залишки)</t>
+          <t>Склад повернення постачальнику (в грн. з ПДВ)</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>WeekDayDateOfPayment</t>
+          <t>Warehouses</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>WeekdayName</t>
+          <t>Склади</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>WeekDayDateOfPayment</t>
+          <t>Warehouses</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>WeekdayNumber</t>
+          <t>Типи Складів (для закупки+залишки)</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Zakupki</t>
+          <t>WeekDayDateOfPayment</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>WeekdayName</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Zakupki</t>
+          <t>WeekDayDateOfPayment</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AgentCode</t>
+          <t>WeekdayNumber</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ClientCode</t>
+          <t>Action</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ComandCode</t>
+          <t>AgentCode</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>ClientCode</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DeliveryCode</t>
+          <t>ComandCode</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>IdЗаказПоставщику</t>
+          <t>DeliveryCode</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>MonthPart</t>
+          <t>Id</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>OrgCode</t>
+          <t>IdЗаказПоставщику</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>PriceCode</t>
+          <t>MonthPart</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ProjectCode</t>
+          <t>OrgCode</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>PriceCode</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TeritoriCode</t>
+          <t>ProjectCode</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>WarehouseCode</t>
+          <t>QuarterPart</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>YearsPart</t>
+          <t>TeritoriCode</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>WarehouseCode</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>YearsPart</t>
         </is>
       </c>
     </row>
@@ -6165,31 +6165,31 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>ТипПриходу</t>
+          <t>date</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ZakupkiDet</t>
+          <t>Zakupki</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>%  виконання плану закупок в базових прихідних цінах</t>
+          <t>number</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ZakupkiDet</t>
+          <t>Zakupki</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>% виконання плану закупки</t>
+          <t>ТипПриходу</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>% виконання плану закупки (прогноз)</t>
+          <t>%  виконання плану закупок в базових прихідних цінах</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>% виконання плану закупки в базових прих. цінах (прогноз)</t>
+          <t>% виконання плану закупки</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>% виконання плану по платіжках</t>
+          <t>% виконання плану закупки (прогноз)</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>% виконання плану закупки в базових прих. цінах (прогноз)</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>ProductCode</t>
+          <t>% виконання плану по платіжках</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>ProjectCode</t>
+          <t>Id</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>ProductCode</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>nds</t>
+          <t>ProjectCode</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>count</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>nds</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>price</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>К-ть од.закупки</t>
+          <t>sum</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Прогноз закупки в поточному місяці (без ПДВ)</t>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Прогноз закупки в поточному місяці в базових прих.цінах (без ПДВ)</t>
+          <t>К-ть од.закупки</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Різниця планової і фактичної закупки (без ПДВ)</t>
+          <t>Прогноз закупки в поточному місяці (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Середньоденна закупка</t>
+          <t>Прогноз закупки в поточному місяці в базових прих.цінах (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Сума закупки (без ПДВ)</t>
+          <t>Різниця планової і фактичної закупки (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Сума закупки (з ПДВ)</t>
+          <t>Середньоденна закупка</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Сума закупок в базових прихідних цінах, без ПДВ</t>
+          <t>Сума закупки (без ПДВ)</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Сума оплат (платіжки), грн без ПДВ</t>
+          <t>Сума закупки (з ПДВ)</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Сума, яку потрібно купити для виконання плану закупок, грн без ПДВ</t>
+          <t>Сума закупок в базових прихідних цінах, без ПДВ</t>
         </is>
       </c>
     </row>
@@ -6453,31 +6453,31 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>СуммаБазовая</t>
+          <t>Сума оплат (платіжки), грн без ПДВ</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>_ABC_Classes</t>
+          <t>ZakupkiDet</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Сума, яку потрібно купити для виконання плану закупок, грн без ПДВ</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>_ABC_Classes</t>
+          <t>ZakupkiDet</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>LowerBoundary</t>
+          <t>СуммаБазовая</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>UpperBoundary</t>
+          <t>ABC</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>_ABC_SalesAmount</t>
+          <t>LowerBoundary</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>_ABC_StocksAmount</t>
+          <t>UpperBoundary</t>
         </is>
       </c>
     </row>
@@ -6525,55 +6525,55 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>_ABC_StocksRotation</t>
+          <t>_ABC_SalesAmount</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ДовідникТипівОплат</t>
+          <t>_ABC_Classes</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>_ABC_StocksAmount</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ДовідникТипівОплат</t>
+          <t>_ABC_Classes</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Тип</t>
+          <t>_ABC_StocksRotation</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Оплати</t>
+          <t>ДовідникТипівОплат</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Code</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Оплати</t>
+          <t>ДовідникТипівОплат</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AgentCode</t>
+          <t>Тип</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AgreementCode</t>
+          <t>Action</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ClientCode</t>
+          <t>AgentCode</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>ComandCode</t>
+          <t>AgreementCode</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>ClientCode</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>ComandCode</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>DateDoc</t>
+          <t>Comment</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>DateNormal</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>DateOfpayment</t>
+          <t>DateDoc</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DayDelay</t>
+          <t>DateNormal</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>DaysExpedited</t>
+          <t>DateOfpayment</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DeliveryCode</t>
+          <t>DayDelay</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>DeliveryType</t>
+          <t>DaysExpedited</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>IsFin</t>
+          <t>DeliveryCode</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>KanalCode</t>
+          <t>DeliveryType</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Obmin</t>
+          <t>IsFin</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>OrgCode</t>
+          <t>KanalCode</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>ProjectCode</t>
+          <t>Obmin</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>ProlongedDebt</t>
+          <t>OrgCode</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>TeritoriCode</t>
+          <t>ProjectCode</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>WarehouseCode</t>
+          <t>ProlongedDebt</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>TeritoriCode</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>ВидОплати</t>
+          <t>WarehouseCode</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Оплата/продаж</t>
+          <t>number</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Остання дата оплати</t>
+          <t>ВидОплати</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Планова дата оплати</t>
+          <t>Оплата/продаж</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Сума оплати</t>
+          <t>Остання дата оплати</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>СумаОплати</t>
+          <t>Планова дата оплати</t>
         </is>
       </c>
     </row>
@@ -6909,23 +6909,31 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
+          <t>Сума оплати</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Оплати</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>СумаОплати</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Оплати</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
           <t>Ф1/Ф2</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr"/>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>AgreementCode</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr"/>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>DeliveryCode</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6941,7 @@
       <c r="A543" t="inlineStr"/>
       <c r="B543" t="inlineStr">
         <is>
-          <t>QuarterPart</t>
+          <t>AgreementCode</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6949,7 @@
       <c r="A544" t="inlineStr"/>
       <c r="B544" t="inlineStr">
         <is>
-          <t>К-ть днів (від дати оплати)</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6957,7 @@
       <c r="A545" t="inlineStr"/>
       <c r="B545" t="inlineStr">
         <is>
-          <t>К-ть днів (дебіторки)</t>
+          <t>DeliveryCode</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6965,15 @@
       <c r="A546" t="inlineStr"/>
       <c r="B546" t="inlineStr">
         <is>
-          <t>К-ть клієнтів</t>
+          <t>QuarterPart</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>К-ть днів (від дати оплати)</t>
         </is>
       </c>
     </row>

--- a/output/NotInJOIN.xlsx
+++ b/output/NotInJOIN.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Table[Column]</t>
+          <t>'Table'[Column]</t>
         </is>
       </c>
     </row>
